--- a/data/Template educators.xlsx
+++ b/data/Template educators.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amsterdamdatacollective-my.sharepoint.com/personal/thomas_b_adc-consulting_com/Documents/Documents/Collective Week/Code/Schooltuinen%20Amsterdam/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amsterdamdatacollective-my.sharepoint.com/personal/thomas_b_adc-consulting_com/Documents/Documents/Collective Week/Data CW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47827D45-F792-4431-A3F2-E036C434254F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82F13A88-1FB4-4028-AF61-E1392EBC2D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{28DF7E66-EF2B-470E-95B5-69ECBE1DA874}"/>
   </bookViews>
@@ -42,54 +42,6 @@
     <t>Medewerker</t>
   </si>
   <si>
-    <t>maandag, 09.00 - 10.30</t>
-  </si>
-  <si>
-    <t>maandag, 10.45 - 12.15</t>
-  </si>
-  <si>
-    <t>maandag, 13.30 - 15.00</t>
-  </si>
-  <si>
-    <t>dinsdag, 09.00 - 10.30</t>
-  </si>
-  <si>
-    <t>dinsdag, 10.45 - 12.15</t>
-  </si>
-  <si>
-    <t>dinsdag, 13.30 - 15.00</t>
-  </si>
-  <si>
-    <t>woensdag, 09.00 - 10.30</t>
-  </si>
-  <si>
-    <t>woensdag, 10.45 - 12.15</t>
-  </si>
-  <si>
-    <t>woensdag, 13.30 - 15.00</t>
-  </si>
-  <si>
-    <t>donderdag, 09.00 - 10.30</t>
-  </si>
-  <si>
-    <t>donderdag, 10.45 - 12.15</t>
-  </si>
-  <si>
-    <t>donderdag, 13.30 - 15.00</t>
-  </si>
-  <si>
-    <t>vrijdag, 09.00 - 10.30</t>
-  </si>
-  <si>
-    <t>vrijdag, 10.45 - 12.15</t>
-  </si>
-  <si>
-    <t>vrijdag, 13.30 - 15.00</t>
-  </si>
-  <si>
-    <t>Tuinlucatie</t>
-  </si>
-  <si>
     <t>Aemstel Schooltuin</t>
   </si>
   <si>
@@ -105,9 +57,6 @@
     <t>Nijkamp Schooltuin</t>
   </si>
   <si>
-    <t>Ridderbus Schooltuin</t>
-  </si>
-  <si>
     <t>Schaap Schooltuin</t>
   </si>
   <si>
@@ -157,6 +106,57 @@
   </si>
   <si>
     <t>Variabel</t>
+  </si>
+  <si>
+    <t>Tuinlocatie</t>
+  </si>
+  <si>
+    <t>Ridderbos Schooltuin</t>
+  </si>
+  <si>
+    <t>maandag, 09:00-10:30</t>
+  </si>
+  <si>
+    <t>maandag, 10:45-12:15</t>
+  </si>
+  <si>
+    <t>maandag, 13:30-15:00</t>
+  </si>
+  <si>
+    <t>dinsdag, 09:00-10:30</t>
+  </si>
+  <si>
+    <t>dinsdag, 10:45-12:15</t>
+  </si>
+  <si>
+    <t>dinsdag, 13:30-15:00</t>
+  </si>
+  <si>
+    <t>woensdag, 09:00-10:30</t>
+  </si>
+  <si>
+    <t>woensdag, 10:45-12:15</t>
+  </si>
+  <si>
+    <t>woensdag, 13:30-15:00</t>
+  </si>
+  <si>
+    <t>donderdag, 09:00-10:30</t>
+  </si>
+  <si>
+    <t>donderdag, 10:45-12:15</t>
+  </si>
+  <si>
+    <t>donderdag, 13:30-15:00</t>
+  </si>
+  <si>
+    <t>vrijdag, 09:00-10:30</t>
+  </si>
+  <si>
+    <t>vrijdag, 10:45-12:15</t>
+  </si>
+  <si>
+    <t>vrijdag, 13:30-15:00</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,27 +253,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -296,16 +282,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF215C98"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC0E4F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -316,311 +292,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF215C98"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFC0E4F5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -719,26 +395,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65CF1513-3FEA-4113-BC85-AD11B78535DF}" name="Table1" displayName="Table1" ref="A1:Q44" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65CF1513-3FEA-4113-BC85-AD11B78535DF}" name="Table1" displayName="Table1" ref="A1:Q44" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:Q44" xr:uid="{65CF1513-3FEA-4113-BC85-AD11B78535DF}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{CF05F284-7E8C-4687-9E3B-D9DCD1E48C6A}" name="Tuinlucatie" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{253ECE07-3475-4A78-9ABA-6C1F0599E063}" name="Medewerker" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{FDAC107F-11FE-4B01-8D55-956192B8062D}" name="maandag, 09.00 - 10.30" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{A737D8B5-62C2-4179-A51F-EFE93AA4808D}" name="maandag, 10.45 - 12.15" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{E14F02E7-E73F-4E4B-8FF4-AD02EDCA00D5}" name="maandag, 13.30 - 15.00" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{0E4F3541-8B5D-4048-940E-8DB90E9B0296}" name="dinsdag, 09.00 - 10.30" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{6EA83A94-685C-48AC-8EEF-E85EA6C49070}" name="dinsdag, 10.45 - 12.15" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{D642DD08-579D-43BF-96FD-E9B7E3DC3AA1}" name="dinsdag, 13.30 - 15.00" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{48ED0137-96B4-44C2-B1F8-E6756AE578B5}" name="woensdag, 09.00 - 10.30" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{7B3554A8-1B84-4B08-ABB9-8D5184954066}" name="woensdag, 10.45 - 12.15" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{B4560B93-5F97-44D6-877D-9D7F89992EE6}" name="woensdag, 13.30 - 15.00" dataDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{A6D092E6-C419-4794-AC11-646FC2A0663D}" name="donderdag, 09.00 - 10.30" dataDxfId="41"/>
-    <tableColumn id="13" xr3:uid="{B7AE602A-DF5D-479B-9064-7603773EF6EA}" name="donderdag, 10.45 - 12.15" dataDxfId="40"/>
-    <tableColumn id="14" xr3:uid="{D9E05058-27DD-4043-8E18-D14065E1807F}" name="donderdag, 13.30 - 15.00" dataDxfId="39"/>
-    <tableColumn id="15" xr3:uid="{710AC6F6-A6E5-43DA-83DF-F5CA0BD3922E}" name="vrijdag, 09.00 - 10.30" dataDxfId="38"/>
-    <tableColumn id="16" xr3:uid="{A6E158FF-6DFE-403E-BA30-C0E2C0811135}" name="vrijdag, 10.45 - 12.15" dataDxfId="37"/>
-    <tableColumn id="17" xr3:uid="{159F70D1-0475-4066-843F-3D073F89EBDC}" name="vrijdag, 13.30 - 15.00" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{CF05F284-7E8C-4687-9E3B-D9DCD1E48C6A}" name="Tuinlocatie" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{253ECE07-3475-4A78-9ABA-6C1F0599E063}" name="Medewerker" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{FDAC107F-11FE-4B01-8D55-956192B8062D}" name="maandag, 09:00-10:30" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{A737D8B5-62C2-4179-A51F-EFE93AA4808D}" name="maandag, 10:45-12:15" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{E14F02E7-E73F-4E4B-8FF4-AD02EDCA00D5}" name="maandag, 13:30-15:00" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{0E4F3541-8B5D-4048-940E-8DB90E9B0296}" name="dinsdag, 09:00-10:30" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{6EA83A94-685C-48AC-8EEF-E85EA6C49070}" name="dinsdag, 10:45-12:15" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{D642DD08-579D-43BF-96FD-E9B7E3DC3AA1}" name="dinsdag, 13:30-15:00" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{48ED0137-96B4-44C2-B1F8-E6756AE578B5}" name="woensdag, 09:00-10:30" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{7B3554A8-1B84-4B08-ABB9-8D5184954066}" name="woensdag, 10:45-12:15" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{B4560B93-5F97-44D6-877D-9D7F89992EE6}" name="woensdag, 13:30-15:00" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{A6D092E6-C419-4794-AC11-646FC2A0663D}" name="donderdag, 09:00-10:30" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{B7AE602A-DF5D-479B-9064-7603773EF6EA}" name="donderdag, 10:45-12:15" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{D9E05058-27DD-4043-8E18-D14065E1807F}" name="donderdag, 13:30-15:00" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{710AC6F6-A6E5-43DA-83DF-F5CA0BD3922E}" name="vrijdag, 09:00-10:30" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{A6E158FF-6DFE-403E-BA30-C0E2C0811135}" name="vrijdag, 10:45-12:15" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{159F70D1-0475-4066-843F-3D073F89EBDC}" name="vrijdag, 13:30-15:00" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1063,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79CD01D-97D2-4538-9202-C61DB9C7A04D}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q8" sqref="M8:Q12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,60 +752,60 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1150,7 +826,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1171,7 +847,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1192,7 +868,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1213,7 +889,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1234,7 +910,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1255,7 +931,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1276,7 +952,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1297,7 +973,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1318,7 +994,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1339,7 +1015,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1360,7 +1036,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1381,7 +1057,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1402,7 +1078,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1423,7 +1099,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1444,7 +1120,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1465,7 +1141,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1486,7 +1162,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1507,7 +1183,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1528,7 +1204,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1549,7 +1225,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1570,7 +1246,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1591,7 +1267,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1612,7 +1288,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1633,7 +1309,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1654,7 +1330,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1675,7 +1351,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1696,7 +1372,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1717,7 +1393,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1738,7 +1414,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1759,7 +1435,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1780,7 +1456,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1801,7 +1477,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1822,7 +1498,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1843,7 +1519,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1864,7 +1540,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1885,7 +1561,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1906,7 +1582,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1927,7 +1603,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1948,7 +1624,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1969,7 +1645,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1990,7 +1666,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2011,7 +1687,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2032,17 +1708,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:Q1048576">
-    <cfRule type="cellIs" dxfId="6" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"V"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"O"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
       <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"O"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"V"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2063,43 +1739,43 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>32</v>
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>33</v>
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>35</v>
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>37</v>
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>39</v>
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
